--- a/elastic_search/serp_metrics.xlsx
+++ b/elastic_search/serp_metrics.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9467813051146384</v>
+        <v>0.4859523809523809</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7856701940035273</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.959375</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3619047619047619</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
         <v>0.3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3407407407407407</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.936734693877551</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.7856701940035273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7470238095238095</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0.9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8782627865961198</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7342251669186193</v>
+        <v>0.8257292768959437</v>
       </c>
     </row>
     <row r="16">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="18">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8142857142857143</v>
+        <v>0.7533333333333333</v>
       </c>
     </row>
   </sheetData>
